--- a/biology/Botanique/Youri_Voronov/Youri_Voronov.xlsx
+++ b/biology/Botanique/Youri_Voronov/Youri_Voronov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Youri Nikolaïevitch Voronov (en russe : Юрий Николаевич Воронов), né le 1er juin 1874 à Tiflis et mort le 10 décembre 1931 à Léningrad, est un botaniste russe et soviétique. Il était spécialiste de la flore du Caucase. Son abréviation scientifique s'écrit « Woronow » car basée sur la graphie allemande en usage chez les scientifiques à l'époque.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Voronov est issu d'une famille de la petite noblesse. Il passe ses jeunes années à Tiflis et au village de Tsebelda (dans l'actuelle Abkhazie). Il termine ses études secondaires au lycée de Koutaïs, puis entre à l'université de Nouvelle-Russie et ensuite à l'académie d'agriculture de Moscou. Il étudie ensuite en France à l'école d'agronomie de Montpellier, puis à Saint-Pétersbourg. Il est employé au jardin botanique de l'université de Saint-Pétersbourg et prend part à des expéditions aux monts Saïan et en Mongolie occidentale.
 Une période fructueuse de sa carrière se déroule à Tiflis, où il est conservateur du jardin botanique et enseigne à l'école polytechnique. Il fait partie des fondateurs de la société d'agriculture de Soukhoum et dirige le musée du Caucase.
@@ -546,13 +560,15 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les 83 espèces baptisées de son nom :
-(Alliaceae) Allium woronowii Miscz. ex Grossh.[1]
-(Amaryllidaceae) Galanthus woronowii Losinsk.[2]
-(Apiaceae) Bupleurum woronowii Manden.[3]
-(Apiaceae) Eryngium woronowii Bordz.[4]</t>
+(Alliaceae) Allium woronowii Miscz. ex Grossh.
+(Amaryllidaceae) Galanthus woronowii Losinsk.
+(Apiaceae) Bupleurum woronowii Manden.
+(Apiaceae) Eryngium woronowii Bordz.</t>
         </is>
       </c>
     </row>
